--- a/AvailableSFMetadata.xlsx
+++ b/AvailableSFMetadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dpdhl-my.sharepoint.com/personal/s_rakesh_dhl_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F748B8-D34D-44D5-BCD9-50C7340E14E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{C5F748B8-D34D-44D5-BCD9-50C7340E14E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE9A28A6-7843-4471-8DB1-EFAB0D7348FB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A51916A1-00B9-4835-B390-DA79D08CBF2F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A51916A1-00B9-4835-B390-DA79D08CBF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>EmbeddedServiceConfig</t>
   </si>
@@ -44,163 +44,160 @@
     <t>EmbeddedServiceLiveAgent</t>
   </si>
   <si>
-    <t>applications</t>
-  </si>
-  <si>
-    <t>approvalProcesses</t>
-  </si>
-  <si>
-    <t>aura</t>
-  </si>
-  <si>
-    <t>autoResponseRules</t>
-  </si>
-  <si>
-    <t>brandingSets</t>
-  </si>
-  <si>
-    <t>callCenters</t>
-  </si>
-  <si>
-    <t>classes</t>
-  </si>
-  <si>
-    <t>communities</t>
-  </si>
-  <si>
-    <t>components</t>
-  </si>
-  <si>
-    <t>connectedApps</t>
-  </si>
-  <si>
-    <t>contentassets</t>
-  </si>
-  <si>
-    <t>customPermissions</t>
-  </si>
-  <si>
-    <t>dashboards</t>
-  </si>
-  <si>
-    <t>documents</t>
-  </si>
-  <si>
-    <t>duplicateRules</t>
-  </si>
-  <si>
-    <t>entitlementProcesses</t>
-  </si>
-  <si>
-    <t>escalationRules</t>
-  </si>
-  <si>
-    <t>flexipages</t>
-  </si>
-  <si>
-    <t>flows</t>
-  </si>
-  <si>
-    <t>globalValueSetTranslations</t>
-  </si>
-  <si>
-    <t>globalValueSets</t>
-  </si>
-  <si>
-    <t>homePageLayouts</t>
-  </si>
-  <si>
-    <t>labels</t>
-  </si>
-  <si>
-    <t>layouts</t>
-  </si>
-  <si>
-    <t>letterhead</t>
-  </si>
-  <si>
-    <t>lightningExperienceThemes</t>
-  </si>
-  <si>
-    <t>lwc</t>
-  </si>
-  <si>
-    <t>matchingRules</t>
-  </si>
-  <si>
-    <t>messageChannels</t>
-  </si>
-  <si>
-    <t>milestoneTypes</t>
-  </si>
-  <si>
-    <t>networks</t>
-  </si>
-  <si>
-    <t>notificationtypes</t>
-  </si>
-  <si>
-    <t>objectTranslations</t>
-  </si>
-  <si>
-    <t>objects</t>
-  </si>
-  <si>
-    <t>pages</t>
-  </si>
-  <si>
-    <t>pathAssistants</t>
-  </si>
-  <si>
-    <t>permissionsets</t>
-  </si>
-  <si>
-    <t>presenceUserConfigs</t>
-  </si>
-  <si>
-    <t>quickActions</t>
-  </si>
-  <si>
-    <t>remoteSiteSettings</t>
-  </si>
-  <si>
-    <t>roles</t>
-  </si>
-  <si>
-    <t>serviceChannels</t>
-  </si>
-  <si>
-    <t>servicePresenceStatuses</t>
-  </si>
-  <si>
-    <t>sharingRules</t>
-  </si>
-  <si>
-    <t>sites</t>
-  </si>
-  <si>
-    <t>skills</t>
-  </si>
-  <si>
-    <t>standardValueSets</t>
-  </si>
-  <si>
-    <t>staticresources</t>
-  </si>
-  <si>
-    <t>tabs</t>
-  </si>
-  <si>
-    <t>testSuites</t>
-  </si>
-  <si>
-    <t>topicsForObjects</t>
-  </si>
-  <si>
-    <t>triggers</t>
-  </si>
-  <si>
-    <t>workflows</t>
+    <t>ApexClass</t>
+  </si>
+  <si>
+    <t>ApprovalProcess</t>
+  </si>
+  <si>
+    <t>AuraDefinitionBundle</t>
+  </si>
+  <si>
+    <t>AutoResponseRules</t>
+  </si>
+  <si>
+    <t>BrandingSet</t>
+  </si>
+  <si>
+    <t>CallCenter</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>ApexComponent</t>
+  </si>
+  <si>
+    <t>ConnectedApp</t>
+  </si>
+  <si>
+    <t>ContentAsset</t>
+  </si>
+  <si>
+    <t>CustomApplication</t>
+  </si>
+  <si>
+    <t>CustomPermission</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>DuplicateRule</t>
+  </si>
+  <si>
+    <t>EntitlementProcess</t>
+  </si>
+  <si>
+    <t>EscalationRules</t>
+  </si>
+  <si>
+    <t>FlexiPage</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>GlobalValueSet</t>
+  </si>
+  <si>
+    <t>GlobalValueSetTranslation</t>
+  </si>
+  <si>
+    <t>HomePageLayout</t>
+  </si>
+  <si>
+    <t>CustomLabels</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Letterhead</t>
+  </si>
+  <si>
+    <t>LightningExperienceTheme</t>
+  </si>
+  <si>
+    <t>LightningComponentBundle</t>
+  </si>
+  <si>
+    <t>MatchingRules</t>
+  </si>
+  <si>
+    <t>LightningMessageChannel</t>
+  </si>
+  <si>
+    <t>MilestoneType</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>NotificationTypeConfig</t>
+  </si>
+  <si>
+    <t>Translations</t>
+  </si>
+  <si>
+    <t>CustomObject</t>
+  </si>
+  <si>
+    <t>ApexPage</t>
+  </si>
+  <si>
+    <t>PathAssistant</t>
+  </si>
+  <si>
+    <t>PermissionSet</t>
+  </si>
+  <si>
+    <t>PresenceUserConfig</t>
+  </si>
+  <si>
+    <t>QuickAction</t>
+  </si>
+  <si>
+    <t>RemoteSiteSetting</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>ServiceChannel</t>
+  </si>
+  <si>
+    <t>ServicePresenceStatus</t>
+  </si>
+  <si>
+    <t>SharingCriteriaRule</t>
+  </si>
+  <si>
+    <t>SiteDotCom</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>StandardValueSet</t>
+  </si>
+  <si>
+    <t>StaticResource</t>
+  </si>
+  <si>
+    <t>CustomTab</t>
+  </si>
+  <si>
+    <t>TopicsForObjects</t>
+  </si>
+  <si>
+    <t>ApexTrigger</t>
+  </si>
+  <si>
+    <t>Workflow</t>
   </si>
 </sst>
 </file>
@@ -574,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB952B80-10A7-4CB2-8859-624E2F2414A8}">
   <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,7 +594,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
@@ -627,27 +624,27 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
@@ -692,12 +689,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
@@ -842,22 +839,22 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
